--- a/document/QuickQuick-ScreenList.xlsx
+++ b/document/QuickQuick-ScreenList.xlsx
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Quick_Sale</t>
-  </si>
-  <si>
-    <t>Hạch toán kế tóan</t>
   </si>
   <si>
     <t>accountant/</t>
@@ -321,12 +318,15 @@
   <si>
     <t>QuickQuick</t>
   </si>
+  <si>
+    <t>Hạch toán kế toán</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -448,18 +448,27 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,25 +495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,12 +762,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,148 +874,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,8 +982,159 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4049,43 +4069,43 @@
     </row>
     <row r="8" spans="1:55" ht="15" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
       <c r="AK8" s="25"/>
       <c r="AL8" s="24"/>
       <c r="AM8" s="24"/>
@@ -4108,41 +4128,41 @@
     </row>
     <row r="9" spans="1:55" ht="15" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
       <c r="AK9" s="25"/>
       <c r="AL9" s="24"/>
       <c r="AM9" s="24"/>
@@ -4165,41 +4185,41 @@
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="24"/>
       <c r="AM10" s="24"/>
@@ -4222,41 +4242,41 @@
     </row>
     <row r="11" spans="1:55" ht="15" customHeight="1">
       <c r="A11" s="23"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="43"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
       <c r="AK11" s="25"/>
       <c r="AL11" s="24"/>
       <c r="AM11" s="24"/>
@@ -4279,41 +4299,41 @@
     </row>
     <row r="12" spans="1:55" ht="15" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="43"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
       <c r="AK12" s="25"/>
       <c r="AL12" s="24"/>
       <c r="AM12" s="24"/>
@@ -4853,43 +4873,43 @@
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
@@ -4912,41 +4932,41 @@
     </row>
     <row r="23" spans="1:55" ht="15" customHeight="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="71"/>
+      <c r="AH23" s="71"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
       <c r="AK23" s="25"/>
       <c r="AL23" s="24"/>
       <c r="AM23" s="24"/>
@@ -4969,41 +4989,41 @@
     </row>
     <row r="24" spans="1:55" ht="15" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="44"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="24"/>
       <c r="AM24" s="24"/>
@@ -5026,41 +5046,41 @@
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1">
       <c r="A25" s="23"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44"/>
-      <c r="AG25" s="44"/>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44"/>
-      <c r="AJ25" s="44"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="71"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
       <c r="AK25" s="25"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="24"/>
@@ -5083,41 +5103,41 @@
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="24"/>
       <c r="AM26" s="24"/>
@@ -5140,41 +5160,41 @@
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1">
       <c r="A27" s="23"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="71"/>
+      <c r="AI27" s="71"/>
+      <c r="AJ27" s="71"/>
       <c r="AK27" s="25"/>
       <c r="AL27" s="24"/>
       <c r="AM27" s="24"/>
@@ -5197,41 +5217,41 @@
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1">
       <c r="A28" s="23"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
       <c r="AK28" s="25"/>
       <c r="AL28" s="24"/>
       <c r="AM28" s="24"/>
@@ -5254,41 +5274,41 @@
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
       <c r="AK29" s="25"/>
       <c r="AL29" s="24"/>
       <c r="AM29" s="24"/>
@@ -5311,41 +5331,41 @@
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
       <c r="AK30" s="25"/>
       <c r="AL30" s="24"/>
       <c r="AM30" s="24"/>
@@ -5368,41 +5388,41 @@
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
       <c r="AK31" s="25"/>
       <c r="AL31" s="24"/>
       <c r="AM31" s="24"/>
@@ -9091,362 +9111,362 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="51.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="2.625" style="1"/>
+    <col min="1" max="1" width="7.375" style="111" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="35" customWidth="1"/>
+    <col min="3" max="4" width="51.625" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="2.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="81" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:4" s="113" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>74</v>
+      <c r="B1" s="112" t="s">
+        <v>73</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="112" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="39" t="s">
+    </row>
+    <row r="3" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A3" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+    </row>
+    <row r="4" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A4" s="116" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+    </row>
+    <row r="5" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A5" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+    </row>
+    <row r="6" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A6" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="119"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A7" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A8" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+    </row>
+    <row r="9" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A10" s="108" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A3" s="35" t="s">
-        <v>17</v>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A11" s="108" t="s">
+        <v>31</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A4" s="35" t="s">
-        <v>19</v>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A12" s="108" t="s">
+        <v>32</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A5" s="35" t="s">
-        <v>20</v>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A13" s="108" t="s">
+        <v>33</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A6" s="35" t="s">
-        <v>21</v>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A14" s="108" t="s">
+        <v>34</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+    </row>
+    <row r="15" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="114" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A10" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A13" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-    </row>
-    <row r="14" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="B15" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="C15" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="D15" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="39" t="s">
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1">
+      <c r="A16" s="108" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A16" s="35" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+    </row>
+    <row r="17" spans="1:4" outlineLevel="1">
+      <c r="A17" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A17" s="35" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+    </row>
+    <row r="18" spans="1:4" outlineLevel="1">
+      <c r="A18" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A18" s="35" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+    </row>
+    <row r="19" spans="1:4" outlineLevel="1">
+      <c r="A19" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+    </row>
+    <row r="20" spans="1:4" outlineLevel="1">
+      <c r="A20" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="20" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+    </row>
+    <row r="21" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="38" t="s">
+      <c r="B21" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="D21" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="39" t="s">
+    </row>
+    <row r="22" spans="1:4" outlineLevel="1">
+      <c r="A22" s="108" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A22" s="35" t="s">
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+    </row>
+    <row r="23" spans="1:4" outlineLevel="1">
+      <c r="A23" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A23" s="35" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+    </row>
+    <row r="24" spans="1:4" outlineLevel="1">
+      <c r="A24" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A24" s="35" t="s">
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+    </row>
+    <row r="25" spans="1:4" outlineLevel="1">
+      <c r="A25" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-    </row>
-    <row r="25" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A25" s="35" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+    </row>
+    <row r="26" spans="1:4" outlineLevel="1">
+      <c r="A26" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A26" s="35" t="s">
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+    </row>
+    <row r="27" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="B27" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="C27" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="39" t="s">
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1">
+      <c r="A28" s="108" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A28" s="35" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1">
+      <c r="A29" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A29" s="35" t="s">
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1">
+      <c r="A30" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A30" s="35" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+    </row>
+    <row r="31" spans="1:4" outlineLevel="1">
+      <c r="A31" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A31" s="35" t="s">
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+    </row>
+    <row r="32" spans="1:4" outlineLevel="1">
+      <c r="A32" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A32" s="35" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+    </row>
+    <row r="33" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-    </row>
-    <row r="33" spans="1:4" s="40" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="B33" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="C33" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="D33" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="39" t="s">
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1">
+      <c r="A34" s="108" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A34" s="35" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+    </row>
+    <row r="35" spans="1:4" outlineLevel="1">
+      <c r="A35" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A35" s="35" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+    </row>
+    <row r="36" spans="1:4" outlineLevel="1">
+      <c r="A36" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A36" s="35" t="s">
+      <c r="B36" s="109"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="109"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1">
+      <c r="A37" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A37" s="35" t="s">
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1">
+      <c r="A38" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="1:4" s="41" customFormat="1" outlineLevel="1">
-      <c r="A38" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -9475,252 +9495,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="63" t="s">
-        <v>79</v>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="86" t="s">
+        <v>78</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="67" t="s">
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="51" t="s">
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="78"/>
+    </row>
+    <row r="2" spans="1:55" ht="15" customHeight="1">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="80"/>
+      <c r="BA2" s="80"/>
+      <c r="BB2" s="81"/>
+    </row>
+    <row r="3" spans="1:55" ht="15" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="47"/>
-    </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="50"/>
-    </row>
-    <row r="3" spans="1:55" ht="15" customHeight="1">
-      <c r="A3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="63" t="s">
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="45" t="s">
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="47"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="78"/>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="73"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="50"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="79"/>
+      <c r="AU4" s="80"/>
+      <c r="AV4" s="80"/>
+      <c r="AW4" s="80"/>
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="80"/>
+      <c r="AZ4" s="80"/>
+      <c r="BA4" s="80"/>
+      <c r="BB4" s="81"/>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -9728,79 +9748,79 @@
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" customHeight="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="99"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="99"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="99"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="99"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="99"/>
-      <c r="AY7" s="99"/>
-      <c r="AZ7" s="114"/>
-      <c r="BA7" s="115"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="69"/>
       <c r="BB7" s="4"/>
     </row>
     <row r="8" spans="1:55" ht="15" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -9836,27 +9856,27 @@
       <c r="AX8" s="19"/>
       <c r="AY8" s="19"/>
       <c r="AZ8" s="19"/>
-      <c r="BA8" s="100"/>
-      <c r="BB8" s="100"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="54"/>
     </row>
     <row r="9" spans="1:55" ht="15" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -9896,52 +9916,52 @@
       <c r="BB9" s="19"/>
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="19"/>
@@ -9952,63 +9972,63 @@
       <c r="BB10" s="19"/>
     </row>
     <row r="11" spans="1:55" ht="15" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="83"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="83"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
       <c r="AZ11" s="19"/>
       <c r="BA11" s="19"/>
       <c r="BB11" s="19"/>
     </row>
     <row r="12" spans="1:55" ht="15" customHeight="1">
-      <c r="A12" s="84"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -10065,7 +10085,7 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="15" customHeight="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -10122,7 +10142,7 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="15" customHeight="1">
-      <c r="A14" s="102"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -10179,7 +10199,7 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="15" customHeight="1">
-      <c r="A15" s="84"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -10190,41 +10210,41 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="86"/>
-      <c r="AJ15" s="86"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
       <c r="AM15" s="20"/>
       <c r="AN15" s="20"/>
       <c r="AO15" s="20"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="86"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="86"/>
-      <c r="AT15" s="86"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="40"/>
+      <c r="AR15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
       <c r="AU15" s="20"/>
       <c r="AV15" s="20"/>
       <c r="AW15" s="20"/>
@@ -10236,7 +10256,7 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="15" customHeight="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -10247,10 +10267,10 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -10261,9 +10281,9 @@
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
       <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
       <c r="AE16" s="20"/>
@@ -10275,13 +10295,13 @@
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="86"/>
-      <c r="AP16" s="86"/>
-      <c r="AQ16" s="86"/>
-      <c r="AR16" s="86"/>
-      <c r="AS16" s="86"/>
-      <c r="AT16" s="86"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="40"/>
       <c r="AU16" s="20"/>
       <c r="AV16" s="20"/>
       <c r="AW16" s="20"/>
@@ -10293,7 +10313,7 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="15" customHeight="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -10304,10 +10324,10 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -10320,9 +10340,9 @@
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="88"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="42"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
@@ -10332,11 +10352,11 @@
       <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
       <c r="AM17" s="19"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="86"/>
-      <c r="AP17" s="86"/>
-      <c r="AQ17" s="86"/>
-      <c r="AR17" s="86"/>
+      <c r="AN17" s="39"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
+      <c r="AQ17" s="40"/>
+      <c r="AR17" s="40"/>
       <c r="AS17" s="20"/>
       <c r="AT17" s="20"/>
       <c r="AU17" s="20"/>
@@ -10350,7 +10370,7 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="15" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -10361,10 +10381,10 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -10377,23 +10397,23 @@
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="89"/>
+      <c r="AB18" s="43"/>
       <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
       <c r="AJ18" s="19"/>
       <c r="AK18" s="19"/>
       <c r="AL18" s="19"/>
       <c r="AM18" s="19"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="86"/>
-      <c r="AP18" s="86"/>
-      <c r="AQ18" s="86"/>
-      <c r="AR18" s="86"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
+      <c r="AQ18" s="40"/>
+      <c r="AR18" s="40"/>
       <c r="AS18" s="20"/>
       <c r="AT18" s="20"/>
       <c r="AU18" s="20"/>
@@ -10407,21 +10427,21 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="15" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
@@ -10434,23 +10454,23 @@
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="89"/>
+      <c r="AB19" s="43"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="86"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40"/>
       <c r="AJ19" s="19"/>
       <c r="AK19" s="19"/>
       <c r="AL19" s="19"/>
       <c r="AM19" s="19"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="86"/>
-      <c r="AP19" s="86"/>
-      <c r="AQ19" s="86"/>
-      <c r="AR19" s="86"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
+      <c r="AQ19" s="40"/>
+      <c r="AR19" s="40"/>
       <c r="AS19" s="20"/>
       <c r="AT19" s="20"/>
       <c r="AU19" s="20"/>
@@ -10464,7 +10484,7 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="15" customHeight="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -10475,10 +10495,10 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
@@ -10489,9 +10509,9 @@
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
       <c r="AE20" s="20"/>
@@ -10503,16 +10523,16 @@
       <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
       <c r="AM20" s="19"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="86"/>
-      <c r="AP20" s="86"/>
-      <c r="AQ20" s="86"/>
-      <c r="AR20" s="86"/>
-      <c r="AS20" s="86"/>
-      <c r="AT20" s="86"/>
-      <c r="AU20" s="86"/>
-      <c r="AV20" s="86"/>
-      <c r="AW20" s="86"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
+      <c r="AQ20" s="40"/>
+      <c r="AR20" s="40"/>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="40"/>
+      <c r="AU20" s="40"/>
+      <c r="AV20" s="40"/>
+      <c r="AW20" s="40"/>
       <c r="AX20" s="20"/>
       <c r="AY20" s="20"/>
       <c r="AZ20" s="20"/>
@@ -10521,7 +10541,7 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="15" customHeight="1">
-      <c r="A21" s="104"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -10554,16 +10574,16 @@
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
-      <c r="AH21" s="105"/>
+      <c r="AH21" s="59"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
       <c r="AK21" s="19"/>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="105"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="59"/>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
-      <c r="AQ21" s="84"/>
+      <c r="AQ21" s="38"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19"/>
       <c r="AT21" s="19"/>
@@ -10574,76 +10594,76 @@
       <c r="AY21" s="19"/>
       <c r="AZ21" s="19"/>
       <c r="BA21" s="19"/>
-      <c r="BB21" s="106"/>
+      <c r="BB21" s="60"/>
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="108"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="108"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="108"/>
-      <c r="AM22" s="111"/>
-      <c r="AN22" s="108"/>
-      <c r="AO22" s="108"/>
-      <c r="AP22" s="108"/>
-      <c r="AQ22" s="108"/>
-      <c r="AR22" s="108"/>
-      <c r="AS22" s="108"/>
-      <c r="AT22" s="108"/>
-      <c r="AU22" s="108"/>
-      <c r="AV22" s="108"/>
-      <c r="AW22" s="108"/>
-      <c r="AX22" s="107"/>
-      <c r="AY22" s="107"/>
-      <c r="AZ22" s="107"/>
-      <c r="BA22" s="107"/>
-      <c r="BB22" s="107"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="65"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="15" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="84"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="84"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -10651,56 +10671,56 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="85"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="39"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="20"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="88"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="42"/>
       <c r="AJ23" s="20"/>
-      <c r="AK23" s="85"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="94"/>
-      <c r="AO23" s="86"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="40"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="40"/>
       <c r="AP23" s="20"/>
       <c r="AQ23" s="20"/>
-      <c r="AR23" s="86"/>
+      <c r="AR23" s="40"/>
       <c r="AS23" s="20"/>
-      <c r="AT23" s="86"/>
+      <c r="AT23" s="40"/>
       <c r="AU23" s="20"/>
       <c r="AV23" s="20"/>
       <c r="AW23" s="20"/>
-      <c r="AX23" s="97"/>
-      <c r="AY23" s="98"/>
-      <c r="AZ23" s="86"/>
-      <c r="BA23" s="86"/>
-      <c r="BB23" s="112"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="52"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
+      <c r="BB23" s="66"/>
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="90"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="20"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="88"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="20"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -10708,55 +10728,55 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
       <c r="AE24" s="20"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="88"/>
+      <c r="AH24" s="46"/>
+      <c r="AI24" s="42"/>
       <c r="AJ24" s="20"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="86"/>
-      <c r="AM24" s="93"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="86"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="40"/>
       <c r="AP24" s="20"/>
       <c r="AQ24" s="20"/>
-      <c r="AR24" s="86"/>
+      <c r="AR24" s="40"/>
       <c r="AS24" s="20"/>
-      <c r="AT24" s="86"/>
+      <c r="AT24" s="40"/>
       <c r="AU24" s="20"/>
       <c r="AV24" s="20"/>
       <c r="AW24" s="20"/>
-      <c r="AX24" s="95"/>
-      <c r="AY24" s="96"/>
-      <c r="AZ24" s="86"/>
-      <c r="BA24" s="86"/>
-      <c r="BB24" s="112"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="50"/>
+      <c r="AZ24" s="40"/>
+      <c r="BA24" s="40"/>
+      <c r="BB24" s="66"/>
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="90"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="20"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="88"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="20"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -10764,56 +10784,56 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="91"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="85"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="39"/>
       <c r="AB25" s="20"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="88"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="42"/>
       <c r="AJ25" s="20"/>
-      <c r="AK25" s="85"/>
-      <c r="AL25" s="86"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="94"/>
-      <c r="AO25" s="86"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="40"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="40"/>
       <c r="AP25" s="20"/>
       <c r="AQ25" s="20"/>
-      <c r="AR25" s="86"/>
+      <c r="AR25" s="40"/>
       <c r="AS25" s="20"/>
-      <c r="AT25" s="86"/>
+      <c r="AT25" s="40"/>
       <c r="AU25" s="20"/>
       <c r="AV25" s="20"/>
       <c r="AW25" s="20"/>
-      <c r="AX25" s="97"/>
-      <c r="AY25" s="98"/>
-      <c r="AZ25" s="86"/>
-      <c r="BA25" s="86"/>
-      <c r="BB25" s="112"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="40"/>
+      <c r="BA25" s="40"/>
+      <c r="BB25" s="66"/>
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="90"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="20"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="88"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="20"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -10821,55 +10841,55 @@
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="91"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="88"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="42"/>
       <c r="AJ26" s="20"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="86"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="94"/>
-      <c r="AO26" s="86"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="40"/>
       <c r="AP26" s="20"/>
       <c r="AQ26" s="20"/>
-      <c r="AR26" s="86"/>
+      <c r="AR26" s="40"/>
       <c r="AS26" s="20"/>
-      <c r="AT26" s="86"/>
+      <c r="AT26" s="40"/>
       <c r="AU26" s="20"/>
       <c r="AV26" s="20"/>
       <c r="AW26" s="20"/>
-      <c r="AX26" s="97"/>
-      <c r="AY26" s="98"/>
-      <c r="AZ26" s="86"/>
-      <c r="BA26" s="86"/>
-      <c r="BB26" s="112"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
+      <c r="BB26" s="66"/>
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="90"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="20"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="88"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="20"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -10877,56 +10897,56 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="91"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="85"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="39"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
       <c r="AE27" s="20"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="88"/>
+      <c r="AH27" s="46"/>
+      <c r="AI27" s="42"/>
       <c r="AJ27" s="20"/>
-      <c r="AK27" s="85"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="89"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="86"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="40"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="20"/>
-      <c r="AR27" s="86"/>
+      <c r="AR27" s="40"/>
       <c r="AS27" s="20"/>
-      <c r="AT27" s="86"/>
+      <c r="AT27" s="40"/>
       <c r="AU27" s="20"/>
       <c r="AV27" s="20"/>
       <c r="AW27" s="20"/>
-      <c r="AX27" s="97"/>
-      <c r="AY27" s="98"/>
-      <c r="AZ27" s="86"/>
-      <c r="BA27" s="86"/>
-      <c r="BB27" s="112"/>
+      <c r="AX27" s="51"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="40"/>
+      <c r="BA27" s="40"/>
+      <c r="BB27" s="66"/>
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="90"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="20"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="88"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="20"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -10934,55 +10954,55 @@
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
       <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="88"/>
+      <c r="AH28" s="46"/>
+      <c r="AI28" s="42"/>
       <c r="AJ28" s="20"/>
-      <c r="AK28" s="86"/>
-      <c r="AL28" s="86"/>
-      <c r="AM28" s="93"/>
-      <c r="AN28" s="94"/>
-      <c r="AO28" s="86"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="40"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="40"/>
       <c r="AP28" s="20"/>
       <c r="AQ28" s="20"/>
-      <c r="AR28" s="86"/>
+      <c r="AR28" s="40"/>
       <c r="AS28" s="20"/>
-      <c r="AT28" s="86"/>
+      <c r="AT28" s="40"/>
       <c r="AU28" s="20"/>
       <c r="AV28" s="20"/>
       <c r="AW28" s="20"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="96"/>
-      <c r="AZ28" s="86"/>
-      <c r="BA28" s="86"/>
-      <c r="BB28" s="112"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="66"/>
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1">
-      <c r="A29" s="85"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="90"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="20"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="88"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="20"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -10990,56 +11010,56 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="91"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="85"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="39"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
       <c r="AE29" s="20"/>
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="88"/>
+      <c r="AH29" s="46"/>
+      <c r="AI29" s="42"/>
       <c r="AJ29" s="20"/>
-      <c r="AK29" s="85"/>
-      <c r="AL29" s="86"/>
-      <c r="AM29" s="89"/>
-      <c r="AN29" s="94"/>
-      <c r="AO29" s="86"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="40"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="20"/>
-      <c r="AR29" s="86"/>
+      <c r="AR29" s="40"/>
       <c r="AS29" s="20"/>
-      <c r="AT29" s="86"/>
+      <c r="AT29" s="40"/>
       <c r="AU29" s="20"/>
       <c r="AV29" s="20"/>
       <c r="AW29" s="20"/>
-      <c r="AX29" s="97"/>
-      <c r="AY29" s="98"/>
-      <c r="AZ29" s="86"/>
-      <c r="BA29" s="86"/>
-      <c r="BB29" s="112"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="40"/>
+      <c r="BA29" s="40"/>
+      <c r="BB29" s="66"/>
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="90"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="20"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="20"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
@@ -11047,55 +11067,55 @@
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="88"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="42"/>
       <c r="AJ30" s="20"/>
-      <c r="AK30" s="86"/>
-      <c r="AL30" s="86"/>
-      <c r="AM30" s="89"/>
-      <c r="AN30" s="94"/>
-      <c r="AO30" s="86"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="40"/>
       <c r="AP30" s="20"/>
       <c r="AQ30" s="20"/>
-      <c r="AR30" s="86"/>
+      <c r="AR30" s="40"/>
       <c r="AS30" s="20"/>
-      <c r="AT30" s="86"/>
+      <c r="AT30" s="40"/>
       <c r="AU30" s="20"/>
       <c r="AV30" s="20"/>
       <c r="AW30" s="20"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="98"/>
-      <c r="AZ30" s="86"/>
-      <c r="BA30" s="86"/>
-      <c r="BB30" s="112"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="66"/>
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="90"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="20"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="88"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="20"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -11103,56 +11123,56 @@
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="85"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="39"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="86"/>
-      <c r="AD31" s="86"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="20"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="88"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="42"/>
       <c r="AJ31" s="20"/>
-      <c r="AK31" s="85"/>
-      <c r="AL31" s="86"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="94"/>
-      <c r="AO31" s="86"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="40"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="40"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="20"/>
-      <c r="AR31" s="86"/>
+      <c r="AR31" s="40"/>
       <c r="AS31" s="20"/>
-      <c r="AT31" s="86"/>
+      <c r="AT31" s="40"/>
       <c r="AU31" s="20"/>
       <c r="AV31" s="20"/>
       <c r="AW31" s="20"/>
-      <c r="AX31" s="97"/>
-      <c r="AY31" s="98"/>
-      <c r="AZ31" s="86"/>
-      <c r="BA31" s="86"/>
-      <c r="BB31" s="112"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="40"/>
+      <c r="BA31" s="40"/>
+      <c r="BB31" s="66"/>
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="90"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="20"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="88"/>
+      <c r="I32" s="42"/>
       <c r="J32" s="20"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
@@ -11160,55 +11180,55 @@
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="86"/>
-      <c r="AD32" s="86"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
       <c r="AE32" s="20"/>
       <c r="AF32" s="20"/>
       <c r="AG32" s="20"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="88"/>
+      <c r="AH32" s="46"/>
+      <c r="AI32" s="42"/>
       <c r="AJ32" s="20"/>
-      <c r="AK32" s="86"/>
-      <c r="AL32" s="86"/>
-      <c r="AM32" s="89"/>
-      <c r="AN32" s="94"/>
-      <c r="AO32" s="86"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="40"/>
       <c r="AP32" s="20"/>
       <c r="AQ32" s="20"/>
-      <c r="AR32" s="86"/>
+      <c r="AR32" s="40"/>
       <c r="AS32" s="20"/>
-      <c r="AT32" s="86"/>
+      <c r="AT32" s="40"/>
       <c r="AU32" s="20"/>
       <c r="AV32" s="20"/>
       <c r="AW32" s="20"/>
-      <c r="AX32" s="97"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="86"/>
-      <c r="BA32" s="86"/>
-      <c r="BB32" s="112"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="40"/>
+      <c r="BA32" s="40"/>
+      <c r="BB32" s="66"/>
     </row>
     <row r="33" spans="1:55" ht="15" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="90"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="20"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="88"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="20"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -11216,56 +11236,56 @@
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="85"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="39"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="86"/>
-      <c r="AD33" s="86"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="88"/>
+      <c r="AH33" s="46"/>
+      <c r="AI33" s="42"/>
       <c r="AJ33" s="20"/>
-      <c r="AK33" s="85"/>
-      <c r="AL33" s="86"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="94"/>
-      <c r="AO33" s="86"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="40"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="40"/>
       <c r="AP33" s="20"/>
       <c r="AQ33" s="20"/>
-      <c r="AR33" s="86"/>
+      <c r="AR33" s="40"/>
       <c r="AS33" s="20"/>
-      <c r="AT33" s="86"/>
+      <c r="AT33" s="40"/>
       <c r="AU33" s="20"/>
       <c r="AV33" s="20"/>
       <c r="AW33" s="20"/>
-      <c r="AX33" s="97"/>
-      <c r="AY33" s="98"/>
-      <c r="AZ33" s="86"/>
-      <c r="BA33" s="86"/>
-      <c r="BB33" s="112"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="40"/>
+      <c r="BA33" s="40"/>
+      <c r="BB33" s="66"/>
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="90"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="20"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="20"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
@@ -11273,55 +11293,55 @@
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="86"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="86"/>
-      <c r="AD34" s="86"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
       <c r="AE34" s="20"/>
       <c r="AF34" s="20"/>
       <c r="AG34" s="20"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="88"/>
+      <c r="AH34" s="46"/>
+      <c r="AI34" s="42"/>
       <c r="AJ34" s="20"/>
-      <c r="AK34" s="86"/>
-      <c r="AL34" s="86"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="94"/>
-      <c r="AO34" s="86"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="40"/>
       <c r="AP34" s="20"/>
       <c r="AQ34" s="20"/>
-      <c r="AR34" s="86"/>
+      <c r="AR34" s="40"/>
       <c r="AS34" s="20"/>
-      <c r="AT34" s="86"/>
+      <c r="AT34" s="40"/>
       <c r="AU34" s="20"/>
       <c r="AV34" s="20"/>
       <c r="AW34" s="20"/>
-      <c r="AX34" s="97"/>
-      <c r="AY34" s="98"/>
-      <c r="AZ34" s="86"/>
-      <c r="BA34" s="86"/>
-      <c r="BB34" s="112"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="40"/>
+      <c r="BB34" s="66"/>
     </row>
     <row r="35" spans="1:55" ht="15" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="90"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="20"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="88"/>
+      <c r="I35" s="42"/>
       <c r="J35" s="20"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -11329,56 +11349,56 @@
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="85"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="39"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="86"/>
-      <c r="AD35" s="86"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
       <c r="AE35" s="20"/>
       <c r="AF35" s="20"/>
       <c r="AG35" s="20"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="88"/>
+      <c r="AH35" s="46"/>
+      <c r="AI35" s="42"/>
       <c r="AJ35" s="20"/>
-      <c r="AK35" s="85"/>
-      <c r="AL35" s="86"/>
-      <c r="AM35" s="93"/>
-      <c r="AN35" s="94"/>
-      <c r="AO35" s="86"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="47"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="40"/>
       <c r="AP35" s="20"/>
       <c r="AQ35" s="20"/>
-      <c r="AR35" s="86"/>
+      <c r="AR35" s="40"/>
       <c r="AS35" s="20"/>
-      <c r="AT35" s="86"/>
+      <c r="AT35" s="40"/>
       <c r="AU35" s="20"/>
       <c r="AV35" s="20"/>
       <c r="AW35" s="20"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="96"/>
-      <c r="AZ35" s="86"/>
-      <c r="BA35" s="86"/>
-      <c r="BB35" s="112"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="40"/>
+      <c r="BB35" s="66"/>
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="90"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="20"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="88"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="20"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -11386,55 +11406,55 @@
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="91"/>
-      <c r="X36" s="86"/>
-      <c r="Y36" s="86"/>
-      <c r="Z36" s="86"/>
-      <c r="AA36" s="86"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="86"/>
-      <c r="AD36" s="86"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
       <c r="AE36" s="20"/>
       <c r="AF36" s="20"/>
       <c r="AG36" s="20"/>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="88"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="42"/>
       <c r="AJ36" s="20"/>
-      <c r="AK36" s="86"/>
-      <c r="AL36" s="86"/>
-      <c r="AM36" s="89"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="86"/>
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="40"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="40"/>
       <c r="AP36" s="20"/>
       <c r="AQ36" s="20"/>
-      <c r="AR36" s="86"/>
+      <c r="AR36" s="40"/>
       <c r="AS36" s="20"/>
-      <c r="AT36" s="86"/>
+      <c r="AT36" s="40"/>
       <c r="AU36" s="20"/>
       <c r="AV36" s="20"/>
       <c r="AW36" s="20"/>
-      <c r="AX36" s="97"/>
-      <c r="AY36" s="98"/>
-      <c r="AZ36" s="86"/>
-      <c r="BA36" s="86"/>
-      <c r="BB36" s="112"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="52"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="40"/>
+      <c r="BB36" s="66"/>
     </row>
     <row r="37" spans="1:55" ht="15" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="90"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="20"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="88"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="20"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -11442,158 +11462,158 @@
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="85"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="39"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="86"/>
-      <c r="AD37" s="86"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
       <c r="AE37" s="20"/>
       <c r="AF37" s="20"/>
       <c r="AG37" s="20"/>
-      <c r="AH37" s="92"/>
-      <c r="AI37" s="88"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="42"/>
       <c r="AJ37" s="20"/>
-      <c r="AK37" s="85"/>
-      <c r="AL37" s="86"/>
-      <c r="AM37" s="93"/>
-      <c r="AN37" s="94"/>
-      <c r="AO37" s="86"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="40"/>
       <c r="AP37" s="20"/>
       <c r="AQ37" s="20"/>
-      <c r="AR37" s="86"/>
+      <c r="AR37" s="40"/>
       <c r="AS37" s="20"/>
-      <c r="AT37" s="86"/>
+      <c r="AT37" s="40"/>
       <c r="AU37" s="20"/>
       <c r="AV37" s="20"/>
       <c r="AW37" s="20"/>
-      <c r="AX37" s="95"/>
-      <c r="AY37" s="96"/>
-      <c r="AZ37" s="86"/>
-      <c r="BA37" s="86"/>
-      <c r="BB37" s="112"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="50"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="40"/>
+      <c r="BB37" s="66"/>
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="15" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
-      <c r="S38" s="86"/>
-      <c r="T38" s="86"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="86"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="86"/>
-      <c r="Y38" s="86"/>
-      <c r="Z38" s="86"/>
-      <c r="AA38" s="86"/>
-      <c r="AB38" s="86"/>
-      <c r="AC38" s="86"/>
-      <c r="AD38" s="86"/>
-      <c r="AE38" s="86"/>
-      <c r="AF38" s="86"/>
-      <c r="AG38" s="86"/>
-      <c r="AH38" s="86"/>
-      <c r="AI38" s="86"/>
-      <c r="AJ38" s="86"/>
-      <c r="AK38" s="86"/>
-      <c r="AL38" s="86"/>
-      <c r="AM38" s="86"/>
-      <c r="AN38" s="86"/>
-      <c r="AO38" s="86"/>
-      <c r="AP38" s="86"/>
-      <c r="AQ38" s="86"/>
-      <c r="AR38" s="86"/>
-      <c r="AS38" s="86"/>
-      <c r="AT38" s="86"/>
-      <c r="AU38" s="86"/>
-      <c r="AV38" s="86"/>
-      <c r="AW38" s="86"/>
-      <c r="AX38" s="86"/>
-      <c r="AY38" s="86"/>
-      <c r="AZ38" s="86"/>
-      <c r="BA38" s="86"/>
-      <c r="BB38" s="86"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="40"/>
+      <c r="AQ38" s="40"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
+      <c r="AV38" s="40"/>
+      <c r="AW38" s="40"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="40"/>
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="15" customHeight="1">
-      <c r="A39" s="103"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
-      <c r="S39" s="86"/>
-      <c r="T39" s="86"/>
-      <c r="U39" s="86"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="86"/>
-      <c r="X39" s="86"/>
-      <c r="Y39" s="86"/>
-      <c r="Z39" s="86"/>
-      <c r="AA39" s="86"/>
-      <c r="AB39" s="86"/>
-      <c r="AC39" s="86"/>
-      <c r="AD39" s="86"/>
-      <c r="AE39" s="86"/>
-      <c r="AF39" s="86"/>
-      <c r="AG39" s="86"/>
-      <c r="AH39" s="86"/>
-      <c r="AI39" s="86"/>
-      <c r="AJ39" s="86"/>
-      <c r="AK39" s="86"/>
-      <c r="AL39" s="86"/>
-      <c r="AM39" s="86"/>
-      <c r="AN39" s="86"/>
-      <c r="AO39" s="86"/>
-      <c r="AP39" s="86"/>
-      <c r="AQ39" s="86"/>
-      <c r="AR39" s="86"/>
-      <c r="AS39" s="86"/>
-      <c r="AT39" s="86"/>
-      <c r="AU39" s="86"/>
-      <c r="AV39" s="86"/>
-      <c r="AW39" s="86"/>
-      <c r="AX39" s="86"/>
-      <c r="AY39" s="86"/>
-      <c r="AZ39" s="86"/>
-      <c r="BA39" s="86"/>
-      <c r="BB39" s="86"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="40"/>
+      <c r="AL39" s="40"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="40"/>
+      <c r="AQ39" s="40"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="40"/>
+      <c r="AW39" s="40"/>
+      <c r="AX39" s="40"/>
+      <c r="AY39" s="40"/>
+      <c r="AZ39" s="40"/>
+      <c r="BA39" s="40"/>
+      <c r="BB39" s="40"/>
     </row>
     <row r="40" spans="1:55" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="S40" s="22"/>
@@ -11606,68 +11626,68 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="15" customHeight="1">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57" t="s">
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="106"/>
+      <c r="O44" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="77" t="s">
+      <c r="P44" s="106"/>
+      <c r="Q44" s="106"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="77"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="77"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="77"/>
-      <c r="AN44" s="77"/>
-      <c r="AO44" s="77"/>
-      <c r="AP44" s="77"/>
-      <c r="AQ44" s="77"/>
-      <c r="AR44" s="77"/>
-      <c r="AS44" s="77"/>
-      <c r="AT44" s="77"/>
-      <c r="AU44" s="77"/>
-      <c r="AV44" s="77"/>
-      <c r="AW44" s="77"/>
-      <c r="AX44" s="77"/>
-      <c r="AY44" s="77"/>
-      <c r="AZ44" s="77"/>
-      <c r="BA44" s="77"/>
-      <c r="BB44" s="77"/>
+      <c r="T44" s="107"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="107"/>
+      <c r="W44" s="107"/>
+      <c r="X44" s="107"/>
+      <c r="Y44" s="107"/>
+      <c r="Z44" s="107"/>
+      <c r="AA44" s="107"/>
+      <c r="AB44" s="107"/>
+      <c r="AC44" s="107"/>
+      <c r="AD44" s="107"/>
+      <c r="AE44" s="107"/>
+      <c r="AF44" s="107"/>
+      <c r="AG44" s="107"/>
+      <c r="AH44" s="107"/>
+      <c r="AI44" s="107"/>
+      <c r="AJ44" s="107"/>
+      <c r="AK44" s="107"/>
+      <c r="AL44" s="107"/>
+      <c r="AM44" s="107"/>
+      <c r="AN44" s="107"/>
+      <c r="AO44" s="107"/>
+      <c r="AP44" s="107"/>
+      <c r="AQ44" s="107"/>
+      <c r="AR44" s="107"/>
+      <c r="AS44" s="107"/>
+      <c r="AT44" s="107"/>
+      <c r="AU44" s="107"/>
+      <c r="AV44" s="107"/>
+      <c r="AW44" s="107"/>
+      <c r="AX44" s="107"/>
+      <c r="AY44" s="107"/>
+      <c r="AZ44" s="107"/>
+      <c r="BA44" s="107"/>
+      <c r="BB44" s="107"/>
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1">
@@ -11685,10 +11705,10 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="79"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="74"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -11742,10 +11762,10 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="79"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="74"/>
       <c r="S46" s="12"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -11799,10 +11819,10 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="79"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="74"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -11856,10 +11876,10 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="79"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="74"/>
       <c r="S48" s="12"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -11913,10 +11933,10 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="79"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="74"/>
       <c r="S49" s="16"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
@@ -11970,10 +11990,10 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="79"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="74"/>
       <c r="S50" s="17"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
@@ -12027,10 +12047,10 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="79"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="74"/>
       <c r="S51" s="16"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
@@ -12084,10 +12104,10 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="79"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="74"/>
       <c r="S52" s="17"/>
       <c r="T52" s="15"/>
       <c r="U52" s="15"/>
@@ -12184,14 +12204,10 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:BB44"/>
     <mergeCell ref="AT1:BB2"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="H3:Q4"/>
@@ -12204,10 +12220,14 @@
     <mergeCell ref="R1:X2"/>
     <mergeCell ref="AK1:AS2"/>
     <mergeCell ref="Y1:AJ2"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:BB44"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O48:R48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/document/QuickQuick-ScreenList.xlsx
+++ b/document/QuickQuick-ScreenList.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet name="KhaiQuat" sheetId="35" r:id="rId1"/>
     <sheet name="Detail" sheetId="4" r:id="rId2"/>
-    <sheet name="I.1" sheetId="37" r:id="rId3"/>
+    <sheet name="blank" sheetId="37" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">I.1!$A$1:$BB$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">blank!$A$1:$BB$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Detail!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725" refMode="R1C1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>Phiên bản 0.1</t>
     <phoneticPr fontId="2"/>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>Quick_General</t>
-  </si>
-  <si>
-    <t>Quản lí hệ thống</t>
   </si>
   <si>
     <t>general/</t>
@@ -321,12 +318,462 @@
   <si>
     <t>Hạch toán kế toán</t>
   </si>
+  <si>
+    <t>Danh mục - KT</t>
+  </si>
+  <si>
+    <t>Hệ thống tài khoản</t>
+  </si>
+  <si>
+    <t>Danh mục ngoại tệ</t>
+  </si>
+  <si>
+    <t>Danh mục doanh thu</t>
+  </si>
+  <si>
+    <t>Danh mục chi phí</t>
+  </si>
+  <si>
+    <t>I.1.4</t>
+  </si>
+  <si>
+    <t>Mua hàng - KT</t>
+  </si>
+  <si>
+    <t>Hóa đơn mua hàng</t>
+  </si>
+  <si>
+    <t>Công nợ phải trả</t>
+  </si>
+  <si>
+    <t>Phân bổ chi phí</t>
+  </si>
+  <si>
+    <t>Bán hàng - KT</t>
+  </si>
+  <si>
+    <t>Hóa đơn bán hàng</t>
+  </si>
+  <si>
+    <t>Hàng bán trả lại</t>
+  </si>
+  <si>
+    <t>Giảm giá hàng bán</t>
+  </si>
+  <si>
+    <t>Tồn kho - KT</t>
+  </si>
+  <si>
+    <t>Quản lý hàng tồn kho</t>
+  </si>
+  <si>
+    <t>Xử lý thừa thiếu kho</t>
+  </si>
+  <si>
+    <t>Tính giá xuất kho</t>
+  </si>
+  <si>
+    <t>Phải thu - KT</t>
+  </si>
+  <si>
+    <t>Quản lý phải thu</t>
+  </si>
+  <si>
+    <t>Phiếu thu</t>
+  </si>
+  <si>
+    <t>Giải trừ phải thu</t>
+  </si>
+  <si>
+    <t>Phải trả - KT</t>
+  </si>
+  <si>
+    <t>Quản lý phải trả</t>
+  </si>
+  <si>
+    <t>Phiếu chi</t>
+  </si>
+  <si>
+    <t>Giải trừ phải trả</t>
+  </si>
+  <si>
+    <t>Ngân quỹ - KT</t>
+  </si>
+  <si>
+    <t>Quản lý ngân quỹ</t>
+  </si>
+  <si>
+    <t>Quản lý ngân lưu</t>
+  </si>
+  <si>
+    <t>Tài sản - KT</t>
+  </si>
+  <si>
+    <t>Khấu hao TSCĐ</t>
+  </si>
+  <si>
+    <t>CP trả trước - KT</t>
+  </si>
+  <si>
+    <t>Chi phí trả trước</t>
+  </si>
+  <si>
+    <t>Tổng hợp - KT</t>
+  </si>
+  <si>
+    <t>Phiếu định khoản</t>
+  </si>
+  <si>
+    <t>I.4</t>
+  </si>
+  <si>
+    <t>I.5</t>
+  </si>
+  <si>
+    <t>I.2.1</t>
+  </si>
+  <si>
+    <t>I.2.2</t>
+  </si>
+  <si>
+    <t>I.2.3</t>
+  </si>
+  <si>
+    <t>I.3.1</t>
+  </si>
+  <si>
+    <t>I.3.2</t>
+  </si>
+  <si>
+    <t>I.3.3</t>
+  </si>
+  <si>
+    <t>I.4.1</t>
+  </si>
+  <si>
+    <t>I.4.2</t>
+  </si>
+  <si>
+    <t>I.4.3</t>
+  </si>
+  <si>
+    <t>I.5.1</t>
+  </si>
+  <si>
+    <t>I.5.2</t>
+  </si>
+  <si>
+    <t>I.5.3</t>
+  </si>
+  <si>
+    <t>I.6</t>
+  </si>
+  <si>
+    <t>I.6.1</t>
+  </si>
+  <si>
+    <t>I.6.2</t>
+  </si>
+  <si>
+    <t>I.6.3</t>
+  </si>
+  <si>
+    <t>I.7</t>
+  </si>
+  <si>
+    <t>I.7.1</t>
+  </si>
+  <si>
+    <t>I.7.2</t>
+  </si>
+  <si>
+    <t>I.8</t>
+  </si>
+  <si>
+    <t>I.8.1</t>
+  </si>
+  <si>
+    <t>I.9</t>
+  </si>
+  <si>
+    <t>I.9.1</t>
+  </si>
+  <si>
+    <t>I.10</t>
+  </si>
+  <si>
+    <t>I.10.1</t>
+  </si>
+  <si>
+    <t>Danh mục - BH</t>
+  </si>
+  <si>
+    <t>Phân nhóm khách hàng</t>
+  </si>
+  <si>
+    <t>Danh mục khách hàng</t>
+  </si>
+  <si>
+    <t>Phân nhóm hàng bán</t>
+  </si>
+  <si>
+    <t>II.1.3</t>
+  </si>
+  <si>
+    <t>II.1.4</t>
+  </si>
+  <si>
+    <t>Báo giá - BH</t>
+  </si>
+  <si>
+    <t>Báo giá định kỳ</t>
+  </si>
+  <si>
+    <t>Báo giá theo yêu cầu</t>
+  </si>
+  <si>
+    <t>Hợp đồng - BH</t>
+  </si>
+  <si>
+    <t>Hợp đồng nguyên tắc</t>
+  </si>
+  <si>
+    <t>Hợp đồng phát sinh</t>
+  </si>
+  <si>
+    <t>Nhu cầu - BH</t>
+  </si>
+  <si>
+    <t>Mua thường xuyên</t>
+  </si>
+  <si>
+    <t>Đơn đặt hàng - BH</t>
+  </si>
+  <si>
+    <t>Đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Xác nhận đặt hàng</t>
+  </si>
+  <si>
+    <t>Trả, giảm - BH</t>
+  </si>
+  <si>
+    <t>II.2.1</t>
+  </si>
+  <si>
+    <t>II.2.2</t>
+  </si>
+  <si>
+    <t>II.3.1</t>
+  </si>
+  <si>
+    <t>II.3.2</t>
+  </si>
+  <si>
+    <t>II.4</t>
+  </si>
+  <si>
+    <t>II.4.1</t>
+  </si>
+  <si>
+    <t>II.5</t>
+  </si>
+  <si>
+    <t>II.5.1</t>
+  </si>
+  <si>
+    <t>II.5.2</t>
+  </si>
+  <si>
+    <t>II.6</t>
+  </si>
+  <si>
+    <t>II.6.1</t>
+  </si>
+  <si>
+    <t>II.6.2</t>
+  </si>
+  <si>
+    <t>Danh mục - MH</t>
+  </si>
+  <si>
+    <t>Phân nhóm hàng mua</t>
+  </si>
+  <si>
+    <t>Danh mục hàng mua</t>
+  </si>
+  <si>
+    <t>Phân nhóm đối tượng</t>
+  </si>
+  <si>
+    <t>DM nhà sản xuất</t>
+  </si>
+  <si>
+    <t>DM nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Xem hiện trạng - MH</t>
+  </si>
+  <si>
+    <t>Hiện trạng tồn kho</t>
+  </si>
+  <si>
+    <t>Hiện trạng tồn quỹ</t>
+  </si>
+  <si>
+    <t>Lịch sử mua hàng</t>
+  </si>
+  <si>
+    <t>Kế hoạch - MH</t>
+  </si>
+  <si>
+    <t>Kế hoạch mua hàng</t>
+  </si>
+  <si>
+    <t>Theo dõi KH mua</t>
+  </si>
+  <si>
+    <t>Phát hành - MH</t>
+  </si>
+  <si>
+    <t>Thanh toán - MH</t>
+  </si>
+  <si>
+    <t>Ứng tiền mua hàng</t>
+  </si>
+  <si>
+    <t>Trả tiền mua hàng</t>
+  </si>
+  <si>
+    <t>III.1.3</t>
+  </si>
+  <si>
+    <t>III.1.4</t>
+  </si>
+  <si>
+    <t>III.1.5</t>
+  </si>
+  <si>
+    <t>III.2.1</t>
+  </si>
+  <si>
+    <t>III.2.2</t>
+  </si>
+  <si>
+    <t>III.2.3</t>
+  </si>
+  <si>
+    <t>III.3.1</t>
+  </si>
+  <si>
+    <t>III.3.2</t>
+  </si>
+  <si>
+    <t>III.4</t>
+  </si>
+  <si>
+    <t>III.4.1</t>
+  </si>
+  <si>
+    <t>III.5</t>
+  </si>
+  <si>
+    <t>III.5.1</t>
+  </si>
+  <si>
+    <t>III.5.2</t>
+  </si>
+  <si>
+    <t>Danh mục - KH</t>
+  </si>
+  <si>
+    <t>Danh mục kho hàng</t>
+  </si>
+  <si>
+    <t>Phân nhóm hàng tkho</t>
+  </si>
+  <si>
+    <t>Nhập kho - KH</t>
+  </si>
+  <si>
+    <t>Nhập kho hàng mua</t>
+  </si>
+  <si>
+    <t>Nhập kho trả lại</t>
+  </si>
+  <si>
+    <t>Xuất kho - KH</t>
+  </si>
+  <si>
+    <t>Xuất kho bán hàng</t>
+  </si>
+  <si>
+    <t>Xuất kho sử dụng</t>
+  </si>
+  <si>
+    <t>Kiểm kho - KH</t>
+  </si>
+  <si>
+    <t>Kiểm khu vực (tháng)</t>
+  </si>
+  <si>
+    <t>Kiểm toàn bộ (quý)</t>
+  </si>
+  <si>
+    <t>IV.2.1</t>
+  </si>
+  <si>
+    <t>IV.2.2</t>
+  </si>
+  <si>
+    <t>IV.3.1</t>
+  </si>
+  <si>
+    <t>IV.3.2</t>
+  </si>
+  <si>
+    <t>IV.4</t>
+  </si>
+  <si>
+    <t>IV.4.1</t>
+  </si>
+  <si>
+    <t>IV.4.2</t>
+  </si>
+  <si>
+    <t>TL hàng - TL</t>
+  </si>
+  <si>
+    <t>Phân nhóm mặt hàng</t>
+  </si>
+  <si>
+    <t>Danh mục mặt hàng</t>
+  </si>
+  <si>
+    <t>TL đối tượng - TL</t>
+  </si>
+  <si>
+    <t>Danh mục đối tượng</t>
+  </si>
+  <si>
+    <t>TL khác - TL</t>
+  </si>
+  <si>
+    <t>V.2.1</t>
+  </si>
+  <si>
+    <t>V.2.2</t>
+  </si>
+  <si>
+    <t>Quản lí hệ thống - Ra quyết định</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -453,19 +900,37 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="9.35"/>
       <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -766,12 +1231,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,19 +1447,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,46 +1576,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3660,7 +4128,7 @@
   <dimension ref="A1:BC95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -4069,43 +4537,43 @@
     </row>
     <row r="8" spans="1:55" ht="15" customHeight="1">
       <c r="A8" s="23"/>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
       <c r="AK8" s="25"/>
       <c r="AL8" s="24"/>
       <c r="AM8" s="24"/>
@@ -4128,41 +4596,41 @@
     </row>
     <row r="9" spans="1:55" ht="15" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
       <c r="AK9" s="25"/>
       <c r="AL9" s="24"/>
       <c r="AM9" s="24"/>
@@ -4185,41 +4653,41 @@
     </row>
     <row r="10" spans="1:55" ht="15" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="70"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="24"/>
       <c r="AM10" s="24"/>
@@ -4242,41 +4710,41 @@
     </row>
     <row r="11" spans="1:55" ht="15" customHeight="1">
       <c r="A11" s="23"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
       <c r="AK11" s="25"/>
       <c r="AL11" s="24"/>
       <c r="AM11" s="24"/>
@@ -4299,41 +4767,41 @@
     </row>
     <row r="12" spans="1:55" ht="15" customHeight="1">
       <c r="A12" s="23"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="70"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
       <c r="AK12" s="25"/>
       <c r="AL12" s="24"/>
       <c r="AM12" s="24"/>
@@ -4873,43 +5341,43 @@
     </row>
     <row r="22" spans="1:55" ht="15" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
@@ -4932,41 +5400,41 @@
     </row>
     <row r="23" spans="1:55" ht="15" customHeight="1">
       <c r="A23" s="23"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
-      <c r="AE23" s="71"/>
-      <c r="AF23" s="71"/>
-      <c r="AG23" s="71"/>
-      <c r="AH23" s="71"/>
-      <c r="AI23" s="71"/>
-      <c r="AJ23" s="71"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
       <c r="AK23" s="25"/>
       <c r="AL23" s="24"/>
       <c r="AM23" s="24"/>
@@ -4989,41 +5457,41 @@
     </row>
     <row r="24" spans="1:55" ht="15" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="71"/>
-      <c r="AI24" s="71"/>
-      <c r="AJ24" s="71"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="24"/>
       <c r="AM24" s="24"/>
@@ -5046,41 +5514,41 @@
     </row>
     <row r="25" spans="1:55" ht="15" customHeight="1">
       <c r="A25" s="23"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="71"/>
-      <c r="AI25" s="71"/>
-      <c r="AJ25" s="71"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
       <c r="AK25" s="25"/>
       <c r="AL25" s="24"/>
       <c r="AM25" s="24"/>
@@ -5103,41 +5571,41 @@
     </row>
     <row r="26" spans="1:55" ht="15" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="71"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="24"/>
       <c r="AM26" s="24"/>
@@ -5160,41 +5628,41 @@
     </row>
     <row r="27" spans="1:55" ht="15" customHeight="1">
       <c r="A27" s="23"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
       <c r="AK27" s="25"/>
       <c r="AL27" s="24"/>
       <c r="AM27" s="24"/>
@@ -5217,41 +5685,41 @@
     </row>
     <row r="28" spans="1:55" ht="15" customHeight="1">
       <c r="A28" s="23"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
       <c r="AK28" s="25"/>
       <c r="AL28" s="24"/>
       <c r="AM28" s="24"/>
@@ -5274,41 +5742,41 @@
     </row>
     <row r="29" spans="1:55" ht="15" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
       <c r="AK29" s="25"/>
       <c r="AL29" s="24"/>
       <c r="AM29" s="24"/>
@@ -5331,41 +5799,41 @@
     </row>
     <row r="30" spans="1:55" ht="15" customHeight="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
       <c r="AK30" s="25"/>
       <c r="AL30" s="24"/>
       <c r="AM30" s="24"/>
@@ -5388,41 +5856,41 @@
     </row>
     <row r="31" spans="1:55" ht="15" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
       <c r="AK31" s="25"/>
       <c r="AL31" s="24"/>
       <c r="AM31" s="24"/>
@@ -9108,371 +9576,1127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="111" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="72" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="35" customWidth="1"/>
     <col min="3" max="4" width="51.625" style="35" customWidth="1"/>
     <col min="5" max="16384" width="2.625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="113" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:4" s="117" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="112" t="s">
+      <c r="B1" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="116" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A3" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A3" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-    </row>
-    <row r="4" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A4" s="116" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+    </row>
+    <row r="4" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A4" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-    </row>
-    <row r="5" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A5" s="116" t="s">
+      <c r="B4" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+    </row>
+    <row r="5" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-    </row>
-    <row r="6" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A6" s="116" t="s">
+      <c r="B5" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-    </row>
-    <row r="7" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A7" s="116" t="s">
+      <c r="B6" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+    </row>
+    <row r="7" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A7" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+    </row>
+    <row r="8" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-    </row>
-    <row r="8" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A8" s="116" t="s">
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+    </row>
+    <row r="9" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A9" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+    </row>
+    <row r="10" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A10" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+    </row>
+    <row r="11" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A11" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+    </row>
+    <row r="12" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A12" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-    </row>
-    <row r="9" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A13" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+    </row>
+    <row r="14" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A14" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+    </row>
+    <row r="15" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A15" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+    </row>
+    <row r="16" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A16" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A17" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+    </row>
+    <row r="18" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A18" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+    </row>
+    <row r="19" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A19" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+    </row>
+    <row r="20" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A20" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+    </row>
+    <row r="21" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A21" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+    </row>
+    <row r="22" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A22" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+    </row>
+    <row r="23" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A23" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+    </row>
+    <row r="24" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A24" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+    </row>
+    <row r="25" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A25" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+    </row>
+    <row r="26" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A26" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+    </row>
+    <row r="27" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A27" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+    </row>
+    <row r="28" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A28" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A29" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A30" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+    </row>
+    <row r="31" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A31" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+    </row>
+    <row r="32" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A32" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+    </row>
+    <row r="33" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A33" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+    </row>
+    <row r="34" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A34" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+    </row>
+    <row r="35" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A35" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+    </row>
+    <row r="36" spans="1:4" s="118" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A36" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+    </row>
+    <row r="37" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C37" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D37" s="74" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A10" s="108" t="s">
+    <row r="38" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A38" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A11" s="108" t="s">
+      <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+    </row>
+    <row r="39" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A39" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A12" s="108" t="s">
+      <c r="B39" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+    </row>
+    <row r="40" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A40" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="110"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A13" s="108" t="s">
+      <c r="B40" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
+    </row>
+    <row r="41" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A41" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+    </row>
+    <row r="42" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A42" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+    </row>
+    <row r="43" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A43" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A14" s="108" t="s">
+      <c r="B43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+    </row>
+    <row r="44" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A44" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A45" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A46" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-    </row>
-    <row r="15" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A47" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A48" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+    </row>
+    <row r="49" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A49" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+    </row>
+    <row r="50" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A50" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="77"/>
+    </row>
+    <row r="51" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A51" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+    </row>
+    <row r="52" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A52" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+    </row>
+    <row r="53" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A53" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+    </row>
+    <row r="54" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A54" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+    </row>
+    <row r="55" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A55" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+    </row>
+    <row r="56" spans="1:4" s="21" customFormat="1" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A56" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+    </row>
+    <row r="57" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A57" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B57" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C57" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D57" s="74" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1">
-      <c r="A16" s="108" t="s">
+    <row r="58" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A58" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1">
-      <c r="A17" s="108" t="s">
+      <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+    </row>
+    <row r="59" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A59" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-    </row>
-    <row r="18" spans="1:4" outlineLevel="1">
-      <c r="A18" s="108" t="s">
+      <c r="B59" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+    </row>
+    <row r="60" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A60" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-    </row>
-    <row r="19" spans="1:4" outlineLevel="1">
-      <c r="A19" s="108" t="s">
+      <c r="B60" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+    </row>
+    <row r="61" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A61" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+    </row>
+    <row r="62" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A62" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+    </row>
+    <row r="63" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A63" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+    </row>
+    <row r="64" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A64" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-    </row>
-    <row r="20" spans="1:4" outlineLevel="1">
-      <c r="A20" s="108" t="s">
+      <c r="B64" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+    </row>
+    <row r="65" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A65" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+    </row>
+    <row r="66" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A66" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+    </row>
+    <row r="67" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A67" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+    </row>
+    <row r="68" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A68" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-    </row>
-    <row r="21" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="114" t="s">
+      <c r="B68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+    </row>
+    <row r="69" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A69" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+    </row>
+    <row r="70" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+    </row>
+    <row r="71" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+    </row>
+    <row r="72" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A72" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+    </row>
+    <row r="73" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A73" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+    </row>
+    <row r="74" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A74" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+    </row>
+    <row r="75" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A75" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+    </row>
+    <row r="76" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A76" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B76" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C76" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D76" s="74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="1">
-      <c r="A22" s="108" t="s">
+    <row r="77" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A77" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-    </row>
-    <row r="23" spans="1:4" outlineLevel="1">
-      <c r="A23" s="108" t="s">
+      <c r="B77" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+    </row>
+    <row r="78" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A78" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-    </row>
-    <row r="24" spans="1:4" outlineLevel="1">
-      <c r="A24" s="108" t="s">
+      <c r="B78" s="120" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+    </row>
+    <row r="79" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A79" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1">
-      <c r="A25" s="108" t="s">
+      <c r="B79" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+    </row>
+    <row r="80" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A80" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="1">
-      <c r="A26" s="108" t="s">
+      <c r="B80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+    </row>
+    <row r="81" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A81" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="120" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+    </row>
+    <row r="82" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A82" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+    </row>
+    <row r="83" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A83" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-    </row>
-    <row r="27" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="114" t="s">
+      <c r="B83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+    </row>
+    <row r="84" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A84" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+    </row>
+    <row r="85" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A85" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+    </row>
+    <row r="86" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A86" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+    </row>
+    <row r="87" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A87" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B87" s="120" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+    </row>
+    <row r="88" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A88" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+    </row>
+    <row r="89" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A89" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B89" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C89" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D89" s="74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" outlineLevel="1">
-      <c r="A28" s="108" t="s">
+    <row r="90" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A90" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1">
-      <c r="A29" s="108" t="s">
+      <c r="B90" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+    </row>
+    <row r="91" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A91" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1">
-      <c r="A30" s="108" t="s">
+      <c r="B91" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+    </row>
+    <row r="92" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A92" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="1">
-      <c r="A31" s="108" t="s">
+      <c r="B92" s="120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+    </row>
+    <row r="93" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A93" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1">
-      <c r="A32" s="108" t="s">
+      <c r="B93" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+    </row>
+    <row r="94" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A94" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+    </row>
+    <row r="95" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A95" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+    </row>
+    <row r="96" spans="1:4" s="21" customFormat="1" ht="15.75" customHeight="1" outlineLevel="1">
+      <c r="A96" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-    </row>
-    <row r="33" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A33" s="114" t="s">
+      <c r="B96" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+    </row>
+    <row r="97" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="A97" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B97" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C97" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="115" t="s">
+    </row>
+    <row r="98" spans="1:4" outlineLevel="1">
+      <c r="A98" s="70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" outlineLevel="1">
-      <c r="A34" s="108" t="s">
+      <c r="B98" s="71"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+    </row>
+    <row r="99" spans="1:4" outlineLevel="1">
+      <c r="A99" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-    </row>
-    <row r="35" spans="1:4" outlineLevel="1">
-      <c r="A35" s="108" t="s">
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+    </row>
+    <row r="100" spans="1:4" outlineLevel="1">
+      <c r="A100" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-    </row>
-    <row r="36" spans="1:4" outlineLevel="1">
-      <c r="A36" s="108" t="s">
+      <c r="B100" s="71"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+    </row>
+    <row r="101" spans="1:4" outlineLevel="1">
+      <c r="A101" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="109"/>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1">
-      <c r="A37" s="108" t="s">
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+    </row>
+    <row r="102" spans="1:4" outlineLevel="1">
+      <c r="A102" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="1">
-      <c r="A38" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="http://localhost/quick/accountant/maintenance/account-system"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://localhost/quick/accountant/maintenance/currency-catalog"/>
+    <hyperlink ref="B6" r:id="rId3" display="http://localhost/quick/accountant/maintenance/revenue-catalog"/>
+    <hyperlink ref="B7" r:id="rId4" display="http://localhost/quick/accountant/maintenance/expenditure-catalog"/>
+    <hyperlink ref="B9" r:id="rId5" display="http://localhost/quick/accountant/transaction/buy-billing"/>
+    <hyperlink ref="B10" r:id="rId6" display="http://localhost/quick/accountant/transaction/owe-topay"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://localhost/quick/accountant/transaction/apportion-expenditure"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://localhost/quick/accountant/transaction/sale-billing"/>
+    <hyperlink ref="B14" r:id="rId9" display="http://localhost/quick/accountant/transaction/product-return"/>
+    <hyperlink ref="B15" r:id="rId10" display="http://localhost/quick/accountant/transaction/product-saleoff"/>
+    <hyperlink ref="B17" r:id="rId11" display="http://localhost/quick/accountant/transaction/stock-manage"/>
+    <hyperlink ref="B18" r:id="rId12" display="http://localhost/quick/accountant/transaction/stock-clean"/>
+    <hyperlink ref="B19" r:id="rId13" display="http://localhost/quick/accountant/transaction/output-price-product"/>
+    <hyperlink ref="B21" r:id="rId14" display="http://localhost/quick/accountant/transaction/obtain-manage"/>
+    <hyperlink ref="B22" r:id="rId15" display="http://localhost/quick/accountant/transaction/obtain-letter"/>
+    <hyperlink ref="B23" r:id="rId16" display="http://localhost/quick/accountant/transaction/obtain-resolve"/>
+    <hyperlink ref="B25" r:id="rId17" display="http://localhost/quick/accountant/transaction/payment-manage"/>
+    <hyperlink ref="B26" r:id="rId18" display="http://localhost/quick/accountant/transaction/payment-letter"/>
+    <hyperlink ref="B27" r:id="rId19" display="http://localhost/quick/accountant/transaction/payment-resolve"/>
+    <hyperlink ref="B29" r:id="rId20" display="http://localhost/quick/accountant/transaction/fund-manage"/>
+    <hyperlink ref="B30" r:id="rId21" display="http://localhost/quick/accountant/transaction/owe-manage"/>
+    <hyperlink ref="B32" r:id="rId22" display="http://localhost/quick/accountant/maintenance/amortize-property"/>
+    <hyperlink ref="B34" r:id="rId23" display="http://localhost/quick/accountant/maintenance/expenditure-pay"/>
+    <hyperlink ref="B36" r:id="rId24" display="http://localhost/quick/accountant/maintenance/account-letter"/>
+    <hyperlink ref="B39" r:id="rId25" display="http://localhost/quick/sale/maintenance/customer-group"/>
+    <hyperlink ref="B40" r:id="rId26" display="http://localhost/quick/sale/maintenance/customer-list"/>
+    <hyperlink ref="B41" r:id="rId27" display="http://localhost/quick/sale/maintenance/product-group"/>
+    <hyperlink ref="B42" r:id="rId28" display="http://localhost/quick/sale/maintenance/product-group"/>
+    <hyperlink ref="B44" r:id="rId29" display="http://localhost/quick/sale/maintenance/price-announce"/>
+    <hyperlink ref="B45" r:id="rId30" display="http://localhost/quick/sale/maintenance/price-announce-request"/>
+    <hyperlink ref="B47" r:id="rId31" display="http://localhost/quick/sale/maintenance/billing-priciple"/>
+    <hyperlink ref="B48" r:id="rId32" display="http://localhost/quick/sale/maintenance/billing-originate"/>
+    <hyperlink ref="B50" r:id="rId33" display="http://localhost/quick/sale/maintenance/buy-regular"/>
+    <hyperlink ref="B52" r:id="rId34" display="http://localhost/quick/sale/transaction/sale-order"/>
+    <hyperlink ref="B53" r:id="rId35" display="http://localhost/quick/sale/transaction/order-confirm"/>
+    <hyperlink ref="B55" r:id="rId36" display="http://localhost/quick/sale/transaction/product-return"/>
+    <hyperlink ref="B56" r:id="rId37" display="http://localhost/quick/sale/transaction/price-saleoff"/>
+    <hyperlink ref="B59" r:id="rId38" display="http://localhost/quick/purchase/maintenance/product-group"/>
+    <hyperlink ref="B60" r:id="rId39" display="http://localhost/quick/purchase/maintenance/product-catalog"/>
+    <hyperlink ref="B61" r:id="rId40" display="http://localhost/quick/purchase/maintenance/object-group"/>
+    <hyperlink ref="B62" r:id="rId41" display="http://localhost/quick/purchase/maintenance/manufacture-list"/>
+    <hyperlink ref="B63" r:id="rId42" display="http://localhost/quick/purchase/maintenance/supplier-list"/>
+    <hyperlink ref="B65" r:id="rId43" display="http://localhost/quick/purchase/maintenance/present-inventory"/>
+    <hyperlink ref="B66" r:id="rId44" display="http://localhost/quick/purchase/maintenance/survival-fund"/>
+    <hyperlink ref="B67" r:id="rId45" display="http://localhost/quick/purchase/maintenance/purchase-history"/>
+    <hyperlink ref="B69" r:id="rId46" display="http://localhost/quick/purchase/transaction/buying-plan"/>
+    <hyperlink ref="B70" r:id="rId47" display="http://localhost/quick/purchase/transaction/customer-trace"/>
+    <hyperlink ref="B72" r:id="rId48" display="http://localhost/quick/purchase/transaction/purchase-order"/>
+    <hyperlink ref="B74" r:id="rId49" display="http://localhost/quick/purchase/transaction/buying-money"/>
+    <hyperlink ref="B75" r:id="rId50" display="http://localhost/quick/purchase/transaction/payment-money"/>
+    <hyperlink ref="B78" r:id="rId51" display="http://localhost/quick/inventory/maintenance/stock-catalog"/>
+    <hyperlink ref="B79" r:id="rId52" display="http://localhost/quick/inventory/maintenance/stock-group"/>
+    <hyperlink ref="B81" r:id="rId53" display="http://localhost/quick/inventory/transaction/input-buying-product"/>
+    <hyperlink ref="B82" r:id="rId54" display="http://localhost/quick/inventory/transaction/input-return-product"/>
+    <hyperlink ref="B84" r:id="rId55" display="http://localhost/quick/inventory/transaction/output-saling-product"/>
+    <hyperlink ref="B85" r:id="rId56" display="http://localhost/quick/inventory/transaction/output-using-product"/>
+    <hyperlink ref="B87" r:id="rId57" display="http://localhost/quick/inventory/maintenance/check-stock-month"/>
+    <hyperlink ref="B88" r:id="rId58" display="http://localhost/quick/inventory/maintenance/check-stock"/>
+    <hyperlink ref="B91" r:id="rId59" display="http://localhost/quick/core/maintenance/product-group"/>
+    <hyperlink ref="B92" r:id="rId60" display="http://localhost/quick/core/maintenance/product-catalog"/>
+    <hyperlink ref="B94" r:id="rId61" display="http://localhost/quick/core/maintenance/object-group"/>
+    <hyperlink ref="B95" r:id="rId62" display="http://localhost/quick/core/maintenance/object-catalog"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId63"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -9483,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15" customHeight="1"/>
@@ -9495,252 +10719,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="90" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="100" t="s">
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="83"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="85"/>
+    </row>
+    <row r="2" spans="1:55" ht="15" customHeight="1">
+      <c r="A2" s="91"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="88"/>
+    </row>
+    <row r="3" spans="1:55" ht="15" customHeight="1">
+      <c r="A3" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="77"/>
-      <c r="AP1" s="77"/>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="77"/>
-      <c r="AZ1" s="77"/>
-      <c r="BA1" s="77"/>
-      <c r="BB1" s="78"/>
-    </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="80"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="80"/>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
-      <c r="BB2" s="81"/>
-    </row>
-    <row r="3" spans="1:55" ht="15" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="86" t="s">
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="75" t="s">
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="100"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="78"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="85"/>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="95"/>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="79"/>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
-      <c r="BB4" s="81"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="103"/>
+      <c r="AM4" s="103"/>
+      <c r="AN4" s="103"/>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="103"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="88"/>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -11626,68 +12850,68 @@
       </c>
     </row>
     <row r="44" spans="1:55" ht="15" customHeight="1">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106" t="s">
+      <c r="B44" s="80"/>
+      <c r="C44" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="106"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
-      <c r="N44" s="106"/>
-      <c r="O44" s="106" t="s">
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="P44" s="106"/>
-      <c r="Q44" s="106"/>
-      <c r="R44" s="106"/>
-      <c r="S44" s="107" t="s">
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="T44" s="107"/>
-      <c r="U44" s="107"/>
-      <c r="V44" s="107"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="107"/>
-      <c r="Y44" s="107"/>
-      <c r="Z44" s="107"/>
-      <c r="AA44" s="107"/>
-      <c r="AB44" s="107"/>
-      <c r="AC44" s="107"/>
-      <c r="AD44" s="107"/>
-      <c r="AE44" s="107"/>
-      <c r="AF44" s="107"/>
-      <c r="AG44" s="107"/>
-      <c r="AH44" s="107"/>
-      <c r="AI44" s="107"/>
-      <c r="AJ44" s="107"/>
-      <c r="AK44" s="107"/>
-      <c r="AL44" s="107"/>
-      <c r="AM44" s="107"/>
-      <c r="AN44" s="107"/>
-      <c r="AO44" s="107"/>
-      <c r="AP44" s="107"/>
-      <c r="AQ44" s="107"/>
-      <c r="AR44" s="107"/>
-      <c r="AS44" s="107"/>
-      <c r="AT44" s="107"/>
-      <c r="AU44" s="107"/>
-      <c r="AV44" s="107"/>
-      <c r="AW44" s="107"/>
-      <c r="AX44" s="107"/>
-      <c r="AY44" s="107"/>
-      <c r="AZ44" s="107"/>
-      <c r="BA44" s="107"/>
-      <c r="BB44" s="107"/>
+      <c r="T44" s="81"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="81"/>
+      <c r="AD44" s="81"/>
+      <c r="AE44" s="81"/>
+      <c r="AF44" s="81"/>
+      <c r="AG44" s="81"/>
+      <c r="AH44" s="81"/>
+      <c r="AI44" s="81"/>
+      <c r="AJ44" s="81"/>
+      <c r="AK44" s="81"/>
+      <c r="AL44" s="81"/>
+      <c r="AM44" s="81"/>
+      <c r="AN44" s="81"/>
+      <c r="AO44" s="81"/>
+      <c r="AP44" s="81"/>
+      <c r="AQ44" s="81"/>
+      <c r="AR44" s="81"/>
+      <c r="AS44" s="81"/>
+      <c r="AT44" s="81"/>
+      <c r="AU44" s="81"/>
+      <c r="AV44" s="81"/>
+      <c r="AW44" s="81"/>
+      <c r="AX44" s="81"/>
+      <c r="AY44" s="81"/>
+      <c r="AZ44" s="81"/>
+      <c r="BA44" s="81"/>
+      <c r="BB44" s="81"/>
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="15" customHeight="1">
@@ -11705,10 +12929,10 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="74"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="114"/>
+      <c r="Q45" s="114"/>
+      <c r="R45" s="115"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
@@ -11762,10 +12986,10 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="74"/>
+      <c r="O46" s="113"/>
+      <c r="P46" s="114"/>
+      <c r="Q46" s="114"/>
+      <c r="R46" s="115"/>
       <c r="S46" s="12"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
@@ -11819,10 +13043,10 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="73"/>
-      <c r="Q47" s="73"/>
-      <c r="R47" s="74"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="114"/>
+      <c r="Q47" s="114"/>
+      <c r="R47" s="115"/>
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
@@ -11876,10 +13100,10 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="74"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="114"/>
+      <c r="Q48" s="114"/>
+      <c r="R48" s="115"/>
       <c r="S48" s="12"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
@@ -11933,10 +13157,10 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="73"/>
-      <c r="Q49" s="73"/>
-      <c r="R49" s="74"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="115"/>
       <c r="S49" s="16"/>
       <c r="T49" s="15"/>
       <c r="U49" s="15"/>
@@ -11990,10 +13214,10 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="74"/>
+      <c r="O50" s="113"/>
+      <c r="P50" s="114"/>
+      <c r="Q50" s="114"/>
+      <c r="R50" s="115"/>
       <c r="S50" s="17"/>
       <c r="T50" s="15"/>
       <c r="U50" s="15"/>
@@ -12047,10 +13271,10 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="74"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="114"/>
+      <c r="Q51" s="114"/>
+      <c r="R51" s="115"/>
       <c r="S51" s="16"/>
       <c r="T51" s="15"/>
       <c r="U51" s="15"/>
@@ -12104,10 +13328,10 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="74"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="114"/>
+      <c r="Q52" s="114"/>
+      <c r="R52" s="115"/>
       <c r="S52" s="17"/>
       <c r="T52" s="15"/>
       <c r="U52" s="15"/>
@@ -12204,6 +13428,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="O52:R52"/>
+    <mergeCell ref="O51:R51"/>
+    <mergeCell ref="O50:R50"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O48:R48"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="C44:N44"/>
     <mergeCell ref="O44:R44"/>
@@ -12220,14 +13452,6 @@
     <mergeCell ref="R1:X2"/>
     <mergeCell ref="AK1:AS2"/>
     <mergeCell ref="Y1:AJ2"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="O46:R46"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="O52:R52"/>
-    <mergeCell ref="O51:R51"/>
-    <mergeCell ref="O50:R50"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O48:R48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
